--- a/AutoChessServer/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AutoChessServer\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnrealProject\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7550C-ACB5-43C0-B6B5-9F96864C7230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ADB461-373B-4175-B648-880EB62E712A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1255,9 +1255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1637,55 +1637,55 @@
         <v>26</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1</v>
+      </c>
+      <c r="O5" s="18">
+        <v>1</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1726,55 +1726,55 @@
         <v>27</v>
       </c>
       <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2561,7 +2561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C22269-DE94-4560-87AE-EDACD52ED5C2}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/AutoChessServer/_Out/NFDataCfg/Excel/Player.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/Player.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnrealProject\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyAutoChess\AutoChessServer\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ADB461-373B-4175-B648-880EB62E712A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0A719-9C2E-4660-9311-142A219E393D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -552,6 +552,10 @@
   <si>
     <t>GroupId</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroEight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -601,6 +605,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1255,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
@@ -2559,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C22269-DE94-4560-87AE-EDACD52ED5C2}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2571,7 +2576,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2583,34 +2588,37 @@
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2622,8 +2630,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2635,8 +2644,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2648,8 +2658,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -2661,8 +2672,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -2674,8 +2686,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,8 +2700,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2700,8 +2714,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="23" t="s">
         <v>103</v>
       </c>
@@ -2723,8 +2738,11 @@
       <c r="G11" s="23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="24" t="s">
         <v>23</v>
       </c>
@@ -2746,8 +2764,11 @@
       <c r="G12" s="23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="23" t="s">
         <v>31</v>
       </c>
@@ -2757,8 +2778,9 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="21" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2788,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +2796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -2870,7 +2892,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:G9 A2:B3 A15:B16" xr:uid="{BB2213B7-863F-4FD5-8FCD-AE55F54BC243}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:H9 A2:B3 A15:B16" xr:uid="{BB2213B7-863F-4FD5-8FCD-AE55F54BC243}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6 B5:B6 A17:A19 B21:B23 B19 B8:B9" xr:uid="{4540EAF6-B870-478A-8529-9BC2FE350666}">
